--- a/enamine_quotes/Quote_1864973_EUR.xlsx
+++ b/enamine_quotes/Quote_1864973_EUR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Data/PanEntero_HIPPO/enamine_quotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3A6B2-418E-E24A-A7AC-0B17A1397072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD484377-5805-C244-957A-F22D9E667FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="42700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16480" yWindow="3700" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote Scr" sheetId="3" r:id="rId1"/>
@@ -570,7 +570,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -885,7 +895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L73" sqref="L73"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J2:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B2,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B2,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -996,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B3,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B3,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1029,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B4,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B4,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1062,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B5,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B5,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1095,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B6,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B6,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1128,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B7,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B7,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1161,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B8,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B8,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1194,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B9,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B9,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1227,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B10,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B10,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1260,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B11,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B11,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B12,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B12,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1326,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B13,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B13,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1359,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B14,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B14,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B15,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B15,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1425,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B16,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B16,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1458,8 +1468,8 @@
         <v>15</v>
       </c>
       <c r="J17" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B17,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B17,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1491,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B18,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B18,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1524,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B19,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B19,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1557,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B20,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B20,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1590,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B21,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B21,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1623,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B22,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B22,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1656,7 +1666,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B23,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B23,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1689,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B24,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B24,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1722,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B25,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B25,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1755,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B26,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B26,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="J27" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B27,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B27,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1821,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="J28" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B28,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B28,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -1854,7 +1864,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B29,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B29,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1887,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="J30" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B30,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B30,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="J31" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B31,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B31,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1953,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="J32" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B32,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B32,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1986,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B33,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B33,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -2019,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="J34" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B34,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B34,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2052,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B35,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B35,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -2085,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B36,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B36,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -2118,8 +2128,8 @@
         <v>15</v>
       </c>
       <c r="J37" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B37,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B37,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2151,7 +2161,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="5" t="b">
-        <f>IFERROR(VLOOKUP('Quote Scr'!$B38,Sheet1!$A$1:$B$33,2,FALSE), FALSE)</f>
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B38,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -2184,6 +2194,7 @@
         <v>16</v>
       </c>
       <c r="J39" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B39,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2216,6 +2227,7 @@
         <v>16</v>
       </c>
       <c r="J40" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B40,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2248,6 +2260,7 @@
         <v>16</v>
       </c>
       <c r="J41" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B41,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2280,6 +2293,7 @@
         <v>16</v>
       </c>
       <c r="J42" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B42,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2312,6 +2326,7 @@
         <v>16</v>
       </c>
       <c r="J43" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B43,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2344,6 +2359,7 @@
         <v>16</v>
       </c>
       <c r="J44" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B44,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2376,6 +2392,7 @@
         <v>16</v>
       </c>
       <c r="J45" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B45,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2408,6 +2425,7 @@
         <v>16</v>
       </c>
       <c r="J46" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B46,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2440,6 +2458,7 @@
         <v>16</v>
       </c>
       <c r="J47" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B47,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2472,6 +2491,7 @@
         <v>16</v>
       </c>
       <c r="J48" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B48,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2504,6 +2524,7 @@
         <v>16</v>
       </c>
       <c r="J49" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B49,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2536,6 +2557,7 @@
         <v>16</v>
       </c>
       <c r="J50" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B50,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2568,6 +2590,7 @@
         <v>16</v>
       </c>
       <c r="J51" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B51,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2600,6 +2623,7 @@
         <v>16</v>
       </c>
       <c r="J52" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B52,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2632,6 +2656,7 @@
         <v>16</v>
       </c>
       <c r="J53" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B53,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2664,6 +2689,7 @@
         <v>16</v>
       </c>
       <c r="J54" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B54,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2696,6 +2722,7 @@
         <v>16</v>
       </c>
       <c r="J55" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B55,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2728,6 +2755,7 @@
         <v>16</v>
       </c>
       <c r="J56" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B56,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2760,6 +2788,7 @@
         <v>16</v>
       </c>
       <c r="J57" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B57,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2792,6 +2821,7 @@
         <v>16</v>
       </c>
       <c r="J58" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B58,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2824,6 +2854,7 @@
         <v>16</v>
       </c>
       <c r="J59" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B59,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2856,6 +2887,7 @@
         <v>16</v>
       </c>
       <c r="J60" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B60,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2888,6 +2920,7 @@
         <v>16</v>
       </c>
       <c r="J61" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B61,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2920,6 +2953,7 @@
         <v>16</v>
       </c>
       <c r="J62" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B62,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2952,6 +2986,7 @@
         <v>16</v>
       </c>
       <c r="J63" s="5" t="b">
+        <f>IFERROR(VLOOKUP('Quote Scr'!$B63,Sheet1!$A$1:$B$35,2,FALSE), FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2971,7 +3006,7 @@
       </c>
       <c r="J65" s="11">
         <f>SUMIF($J$2:$J$38,TRUE,$G$2:$G$38)</f>
-        <v>7651</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.2">
@@ -3015,7 +3050,7 @@
       </c>
       <c r="J68" s="10">
         <f>SUM(J65:J67)</f>
-        <v>7711</v>
+        <v>9016</v>
       </c>
     </row>
   </sheetData>
@@ -3024,9 +3059,14 @@
     <sortCondition ref="G2:G63"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="J69:J1048576 J1:J65">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="J1:J65 J69:J1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3037,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE125956-272D-5F46-8F50-9CC3EB382371}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="H22" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3207,7 +3247,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>24780</v>
+        <v>24769</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3215,7 +3255,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>62735</v>
+        <v>24780</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -3223,7 +3263,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>62748</v>
+        <v>59956</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3231,7 +3271,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>66987</v>
+        <v>62735</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -3239,7 +3279,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>67033</v>
+        <v>62748</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -3247,7 +3287,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>81389</v>
+        <v>66987</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -3255,7 +3295,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>86382</v>
+        <v>67033</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -3263,7 +3303,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>92454</v>
+        <v>81389</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -3271,7 +3311,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>110229</v>
+        <v>86382</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -3279,7 +3319,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>110253</v>
+        <v>92454</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -3287,7 +3327,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>110293</v>
+        <v>110229</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -3295,7 +3335,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>110297</v>
+        <v>110253</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -3303,15 +3343,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
+        <v>110293</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>110297</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>110301</v>
       </c>
-      <c r="B33" t="b">
+      <c r="B35" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A33">
-    <sortCondition ref="A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A35">
+    <sortCondition ref="A1:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
